--- a/data/dataset_primer_1.xlsx
+++ b/data/dataset_primer_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafiAchmadfr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5010c15d569d2076/04. University of Jember/01. Physics Academics/TUGAS AKHIR/04. Program-Evapotranspiration-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C0409-D37C-43F3-AFF5-DDF7165FBC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="892" activeTab="2" xr2:uid="{19779813-1ABE-4A54-9DA3-A5A4011250A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="892" activeTab="1" xr2:uid="{19779813-1ABE-4A54-9DA3-A5A4011250A9}"/>
   </bookViews>
   <sheets>
     <sheet name="day 1" sheetId="3" r:id="rId1"/>
@@ -7029,7 +7029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FE9F08-D07E-40CE-BE7A-42B370CEE653}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="BB8" sqref="BB8"/>
     </sheetView>
   </sheetViews>
@@ -8059,7 +8059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAF3CD1-75E8-429B-BC9D-71259E30A9BB}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BB4" sqref="BB4"/>
     </sheetView>
   </sheetViews>
@@ -10420,7 +10420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5004C8-C72E-437F-9118-49E3179983CF}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BB7" sqref="BB7"/>
     </sheetView>
   </sheetViews>
@@ -11289,11 +11289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0772ABAD-A522-4626-A734-22268DF2DE10}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP9" sqref="AP9"/>
+      <selection pane="bottomRight" activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12611,7 +12611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB40C20-1C49-4498-AC2C-1C3DB4DCCACA}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
